--- a/public/franchise_regist_templete.xlsx
+++ b/public/franchise_regist_templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nnbox-control-frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AD4F7C-C389-41E5-A76E-71A265DFD05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0E7A4-4084-4B29-8231-C5FAA85DC594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30820" yWindow="4040" windowWidth="28100" windowHeight="15910" xr2:uid="{7D6D5289-FBC3-4867-9A3A-B902DB328E82}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{7D6D5289-FBC3-4867-9A3A-B902DB328E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>text 파일입니다.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달요금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소보유잔액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8888-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsungzoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsungzzang@samsung.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서초구 서초대로74길 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료 변경 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700-8000-900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaotalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaotalk@kakao.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 첨단로 242 (우)63309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주산간지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111-2222-333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오카카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오박사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3333-6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pokemon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pokemon@monster.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태초마을 상록시티 회색타운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +207,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +226,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -68,22 +273,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="통화 [0]" xfId="1" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,48 +661,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1461C91C-D9AD-4C85-BC71-0A9B6C8FF6A1}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.58203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.58203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="15.58203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.58203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="31.08203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="15.58203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4860</v>
+      </c>
+      <c r="L2" s="8">
+        <v>500</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="9">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7777</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="8">
+        <v>50000</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="9">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8">
+        <v>70000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>998777</v>
+      </c>
+      <c r="L4" s="8">
+        <v>500</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="8">
+        <v>500</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="9">
+        <v>44336</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{8FF5F6FB-8037-49C7-BBD3-8422623F4138}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{82F9EA67-4AE0-4188-B12D-970F7C48B882}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{5FDC7C8B-AA41-483B-BF11-D6C8AFED620D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/franchise_regist_templete.xlsx
+++ b/public/franchise_regist_templete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nnbox-control-frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0E7A4-4084-4B29-8231-C5FAA85DC594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECB957-EF39-4ECD-98B9-2AB6B09F338E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{7D6D5289-FBC3-4867-9A3A-B902DB328E82}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{7D6D5289-FBC3-4867-9A3A-B902DB328E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 위 내용은 예시이니 지우고 사용해주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +254,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -302,6 +315,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -314,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +393,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,32 +720,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1461C91C-D9AD-4C85-BC71-0A9B6C8FF6A1}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="8.08203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.0625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.58203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.58203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.58203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.58203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="31.08203125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="15.58203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="19.4375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.0625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.5625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="15.5625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="31.0625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="15.5625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -786,7 +845,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -836,7 +895,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -886,7 +945,23 @@
         <v>44336</v>
       </c>
     </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="11" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:H11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{8FF5F6FB-8037-49C7-BBD3-8422623F4138}"/>
